--- a/legislator/property/output/normal/陳超明_2013-11-12_財產申報表_tmpf8fc1.xlsx
+++ b/legislator/property/output/normal/陳超明_2013-11-12_財產申報表_tmpf8fc1.xlsx
@@ -19,9 +19,279 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="116">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="131">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍鳳段07500000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮竹南段二小段08360000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍鳳段07920000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍鳳段07920001地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍鳳段07920002地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍鳳段07920003地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍鳳段07920004地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍鳳段07920005地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍鳳段07990000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮中興段04250004地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮中興段08190002地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮中興段08280007地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮中興段08280008地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮天聲段04630000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮天聲段04630002地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮天聲段05950000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍山段03880000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03610000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍山段03970000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍山段04450000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮龍山段04450001地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮文化段00380000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮文化段00390000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮文化段00460001地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮文化段00470001地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮文化段00490001地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮文化段00500000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮文化段00500001地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮文化段00510000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03660000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03670000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03690000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03700000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03710000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03750000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03760000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03770000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03780000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03790000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03800000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03810000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03820000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段03870000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段04210000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣竹南鎮五福段04220000地號</t>
+  </si>
+  <si>
+    <t>苗栗縣頭份鎮華夏段03010000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>100000分之18098</t>
+  </si>
+  <si>
+    <t>20分之1</t>
+  </si>
+  <si>
+    <t>180965分之3883</t>
+  </si>
+  <si>
+    <t>120分之3</t>
+  </si>
+  <si>
+    <t>60分之1</t>
+  </si>
+  <si>
+    <t>1447720分之46597</t>
+  </si>
+  <si>
+    <t>24分之1</t>
+  </si>
+  <si>
+    <t>7238600分之77665</t>
+  </si>
+  <si>
+    <t>85160分之2741</t>
+  </si>
+  <si>
+    <t>3600分之33</t>
+  </si>
+  <si>
+    <t>15分之1</t>
+  </si>
+  <si>
+    <t>陳超明</t>
+  </si>
+  <si>
+    <t>67年11月16日</t>
+  </si>
+  <si>
+    <t>73年11月19日</t>
+  </si>
+  <si>
+    <t>91年11月11曰</t>
+  </si>
+  <si>
+    <t>91年11月</t>
+  </si>
+  <si>
+    <t>73年11月19日.</t>
+  </si>
+  <si>
+    <t>74年10月14日</t>
+  </si>
+  <si>
+    <t>100年11月15曰</t>
+  </si>
+  <si>
+    <t>100年11</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超過五年)</t>
+  </si>
+  <si>
+    <t>20180</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-11-12</t>
+  </si>
+  <si>
+    <t>tmpf8fc1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,229 +312,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>苗栗縣竹南鎮龍鳳段0750-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮竹南段二小段 0836-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍鳳段0792-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍鳳段0792-0001 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍鳳段0792-0002 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍鳳段0792-0003 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍鳳段0792-0004 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍鳳段0792-0005 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍鳳段0799-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮中興段0425-0004 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮中興段0819-0002 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮中興段0828-0007 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮中興段0828-0008 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮天聲段0463-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮天聲段0463-0002 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮天聲段0595-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍山段0388-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0361-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍山段0397-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍山段0445-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍山段0445-0001 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮文化段0038-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮文化段0039-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮文化段0046-0001 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮文化段0047-0001 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮文化段0049-0001 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮文化段0050-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮文化段0050-0001 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮文化段0051 -0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0366-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0367-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0369-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0370-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0371 -0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0375-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0376-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0377-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0378-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0379-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0380-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0381-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0382-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0387-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0421 -0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮五福段0422-0000 地號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份鎮華夏段0301-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>100000 分 之 18098</t>
-  </si>
-  <si>
-    <t>20分之1</t>
-  </si>
-  <si>
-    <t>180965 分 之 3883</t>
-  </si>
-  <si>
-    <t>120分之3</t>
-  </si>
-  <si>
-    <t>60分之1</t>
-  </si>
-  <si>
-    <t>1447720 分 之 46597</t>
-  </si>
-  <si>
-    <t>24分之1</t>
-  </si>
-  <si>
-    <t>7238600 分 之 77665</t>
-  </si>
-  <si>
-    <t>85160分之 2741</t>
-  </si>
-  <si>
-    <t>3600分之 33</t>
-  </si>
-  <si>
-    <t>15分之1</t>
-  </si>
-  <si>
-    <t>陳超明</t>
-  </si>
-  <si>
-    <t>67年11月 16日</t>
-  </si>
-  <si>
-    <t>73年11月 19日</t>
-  </si>
-  <si>
-    <t>91年11月 11曰</t>
-  </si>
-  <si>
-    <t>91年11月</t>
-  </si>
-  <si>
-    <t>73年11月 19日.</t>
-  </si>
-  <si>
-    <t>74年10月 14日</t>
-  </si>
-  <si>
-    <t>100 年 11 月15曰</t>
-  </si>
-  <si>
-    <t>100 年 11</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年)</t>
-  </si>
-  <si>
-    <t>20，180</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>苗栗縣竹南鎮照南里2鄰光復路</t>
   </si>
   <si>
-    <t>100000 分 之 33333</t>
+    <t>100000分之33333</t>
   </si>
   <si>
     <t>種類</t>
@@ -279,19 +330,13 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>廠 牌型號</t>
-  </si>
-  <si>
-    <t>汽 缸容量</t>
-  </si>
-  <si>
-    <t>_登記（取 得）時間</t>
-  </si>
-  <si>
-    <t>登記（取 得）原因</t>
-  </si>
-  <si>
-    <t>保險公'司</t>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>保險公司</t>
   </si>
   <si>
     <t>保險名稱</t>
@@ -327,16 +372,16 @@
     <t>抵押貸款</t>
   </si>
   <si>
-    <t>玉山銀行 苗栗縣竹南鎮民族街61號</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行股份有限公司 苗栗縣頭份鎮中華路942號</t>
-  </si>
-  <si>
-    <t>101年02月 23日</t>
-  </si>
-  <si>
-    <t>90年08月 29日</t>
+    <t>玉山銀行苗栗縣竹南鎮民族街61號</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行股份有限公司苗栗縣頭份鎮中華路942號</t>
+  </si>
+  <si>
+    <t>101年02月23日</t>
+  </si>
+  <si>
+    <t>90年08月29日</t>
   </si>
   <si>
     <t>資金周轉</t>
@@ -357,13 +402,13 @@
     <t>台灣聚優股份有限公司</t>
   </si>
   <si>
-    <t>臺北市濟南路三段39之1號 5樓</t>
-  </si>
-  <si>
-    <t>1，000，000</t>
-  </si>
-  <si>
-    <t>78年12月 13日</t>
+    <t>臺北市濟南路三段39之1號5樓</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>78年12月13日</t>
   </si>
   <si>
     <t>投資</t>
@@ -725,13 +770,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,1201 +798,2188 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="2">
+        <v>836</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>19.2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="2">
+        <v>836</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>128.19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="2">
+        <v>836</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="2">
+        <v>836</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>2.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="2">
+        <v>836</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>4.6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="2">
+        <v>836</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>18.6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="2">
+        <v>836</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>24.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="2">
+        <v>836</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>10.2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="2">
+        <v>836</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>13.2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="2">
+        <v>836</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>74.56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="2">
+        <v>836</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="2">
+        <v>836</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="2">
+        <v>836</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>265.64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="2">
+        <v>836</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>2.15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="2">
+        <v>836</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>40.63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="2">
+        <v>836</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>10.34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="2">
+        <v>836</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>318.44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H19" s="2">
         <v>12295</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="2">
+        <v>836</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>9.1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="2">
+        <v>836</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>4.44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="2">
+        <v>836</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>3.52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="2">
+        <v>836</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>8.17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="2">
+        <v>836</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>8.2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="2">
+        <v>836</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>1.9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="2">
+        <v>836</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O25" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>0.52</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="2">
+        <v>836</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>0.6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" s="2">
+        <v>836</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>1.03</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="2">
+        <v>836</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>0.17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="2">
+        <v>836</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
         <v>24.73</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="2">
+        <v>836</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O30" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
         <v>62.69</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H31" s="2">
         <v>2420</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M31" s="2">
+        <v>836</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <v>35.92</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H32" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" s="2">
+        <v>836</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2">
         <v>73.99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H33" s="2">
         <v>2857</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" s="2">
+        <v>836</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O33" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2">
         <v>74.39</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H34" s="2">
         <v>3348</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" s="2">
+        <v>836</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O34" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2">
         <v>1.21</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H35" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" s="2">
+        <v>836</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2">
         <v>71.41</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H36" s="2">
         <v>3213</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" s="2">
+        <v>836</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O36" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <v>348.39</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37" s="2">
+        <v>836</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O37" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <v>59.42</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H38" s="2">
         <v>2674</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M38" s="2">
+        <v>836</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O38" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2">
         <v>210.86</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H39" s="2">
         <v>15812</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M39" s="2">
+        <v>836</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O39" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2">
         <v>2066.81</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H40" s="2">
         <v>154986</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M40" s="2">
+        <v>836</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O40" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2">
         <v>2.84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H41" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M41" s="2">
+        <v>836</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O41" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2">
         <v>0.64</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H42" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42" s="2">
+        <v>836</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O42" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2">
         <v>24.72</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H43" s="2">
         <v>1432</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M43" s="2">
+        <v>836</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O43" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2">
         <v>1.82</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H44" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M44" s="2">
+        <v>836</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O44" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2">
         <v>0.85</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H45" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M45" s="2">
+        <v>836</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O45" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2">
         <v>0.04</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M46" s="2">
+        <v>836</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O46" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2">
         <v>21.65</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M47" s="2">
+        <v>836</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O47" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1965,25 +2997,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1991,25 +3023,25 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2">
         <v>128.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2027,22 +3059,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2050,22 +3082,22 @@
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2083,13 +3115,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2097,13 +3129,13 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2111,13 +3143,13 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2135,22 +3167,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2158,22 +3190,22 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2">
         <v>15989326</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2181,22 +3213,22 @@
         <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2">
         <v>7014787</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2214,22 +3246,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2237,22 +3269,22 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳超明_2013-11-12_財產申報表_tmpf8fc1.xlsx
+++ b/legislator/property/output/normal/陳超明_2013-11-12_財產申報表_tmpf8fc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>苗栗縣竹南鎮龍鳳段07500000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>苗栗縣竹南鎮竹南段二小段08360000地號</t>
@@ -201,9 +204,6 @@
     <t>苗栗縣頭份鎮華夏段03010000地號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>5分之1</t>
   </si>
   <si>
@@ -243,9 +243,6 @@
     <t>陳超明</t>
   </si>
   <si>
-    <t>67年11月16日</t>
-  </si>
-  <si>
     <t>73年11月19日</t>
   </si>
   <si>
@@ -291,16 +288,19 @@
     <t>tmpf8fc1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+    <t>苗栗縣竹南鎮照南里2鄰光復路</t>
+  </si>
+  <si>
+    <t>100000分之33333</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -312,39 +312,6 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>苗栗縣竹南鎮照南里2鄰光復路</t>
-  </si>
-  <si>
-    <t>100000分之33333</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>總噸數</t>
-  </si>
-  <si>
-    <t>船籍港</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保.人</t>
-  </si>
-  <si>
     <t>全球人壽</t>
   </si>
   <si>
@@ -354,49 +321,22 @@
     <t>全球人壽終身壽險</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>抵押貸款</t>
   </si>
   <si>
     <t>玉山銀行苗栗縣竹南鎮民族街61號</t>
   </si>
   <si>
+    <t>101年02月23日</t>
+  </si>
+  <si>
+    <t>資金周轉</t>
+  </si>
+  <si>
     <t>臺灣土地銀行股份有限公司苗栗縣頭份鎮中華路942號</t>
   </si>
   <si>
-    <t>101年02月23日</t>
-  </si>
-  <si>
     <t>90年08月29日</t>
-  </si>
-  <si>
-    <t>資金周轉</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
   <si>
     <t>台灣聚優股份有限公司</t>
@@ -770,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,19 +759,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>95</v>
+        <v>19.2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>73</v>
@@ -840,19 +786,19 @@
         <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>73</v>
@@ -861,21 +807,27 @@
         <v>836</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>19.2</v>
+        <v>128.19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>61</v>
@@ -884,22 +836,22 @@
         <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>73</v>
@@ -908,21 +860,27 @@
         <v>836</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25.638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>128.19</v>
+        <v>1.6</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>61</v>
@@ -931,22 +889,22 @@
         <v>73</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>73</v>
@@ -955,21 +913,27 @@
         <v>836</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>61</v>
@@ -978,22 +942,22 @@
         <v>73</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>73</v>
@@ -1002,21 +966,27 @@
         <v>836</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>61</v>
@@ -1025,22 +995,22 @@
         <v>73</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>73</v>
@@ -1049,21 +1019,27 @@
         <v>836</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>4.6</v>
+        <v>18.6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>61</v>
@@ -1072,22 +1048,22 @@
         <v>73</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>73</v>
@@ -1096,21 +1072,27 @@
         <v>836</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>18.6</v>
+        <v>24.2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>61</v>
@@ -1119,22 +1101,22 @@
         <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>73</v>
@@ -1143,21 +1125,27 @@
         <v>836</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>24.2</v>
+        <v>10.2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>61</v>
@@ -1166,22 +1154,22 @@
         <v>73</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>73</v>
@@ -1190,21 +1178,27 @@
         <v>836</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>10.2</v>
+        <v>13.2</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>61</v>
@@ -1216,19 +1210,19 @@
         <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>73</v>
@@ -1237,115 +1231,133 @@
         <v>836</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O10" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>74.56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="2">
+        <v>836</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="2">
         <v>23</v>
       </c>
-      <c r="C11" s="2">
-        <v>13.2</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="P11" s="2">
+        <v>0.18098</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>13.4938688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="2">
-        <v>836</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="I12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="2">
+        <v>836</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="2">
         <v>24</v>
       </c>
-      <c r="C12" s="2">
-        <v>74.56</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="2">
-        <v>836</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O12" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>61</v>
@@ -1357,19 +1369,19 @@
         <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>73</v>
@@ -1378,45 +1390,51 @@
         <v>836</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O13" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>26</v>
+        <v>265.64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>73</v>
@@ -1425,21 +1443,27 @@
         <v>836</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O14" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>13.282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>265.64</v>
+        <v>2.15</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>63</v>
@@ -1448,22 +1472,22 @@
         <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>73</v>
@@ -1472,21 +1496,27 @@
         <v>836</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>2.15</v>
+        <v>40.63</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>63</v>
@@ -1495,22 +1525,22 @@
         <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>73</v>
@@ -1519,21 +1549,27 @@
         <v>836</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>2.0315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>40.63</v>
+        <v>10.34</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>63</v>
@@ -1542,22 +1578,22 @@
         <v>73</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>73</v>
@@ -1566,24 +1602,30 @@
         <v>836</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>10.34</v>
+        <v>318.44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>73</v>
@@ -1592,66 +1634,72 @@
         <v>79</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="2">
+        <v>12295</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="2">
+        <v>836</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.0214571878540049</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>6.83282690022933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" s="2">
-        <v>836</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O18" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2">
-        <v>318.44</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="2">
-        <v>12295</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>73</v>
@@ -1660,21 +1708,27 @@
         <v>836</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>9.1</v>
+        <v>4.44</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>63</v>
@@ -1683,22 +1737,22 @@
         <v>73</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>73</v>
@@ -1707,21 +1761,27 @@
         <v>836</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>4.44</v>
+        <v>3.52</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>63</v>
@@ -1730,22 +1790,22 @@
         <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>73</v>
@@ -1754,45 +1814,51 @@
         <v>836</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>3.52</v>
+        <v>8.17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>73</v>
@@ -1801,21 +1867,27 @@
         <v>836</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O22" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1.634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>8.17</v>
+        <v>8.2</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>61</v>
@@ -1824,22 +1896,22 @@
         <v>73</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>73</v>
@@ -1848,21 +1920,27 @@
         <v>836</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>8.2</v>
+        <v>1.9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>61</v>
@@ -1871,22 +1949,22 @@
         <v>73</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>73</v>
@@ -1895,21 +1973,27 @@
         <v>836</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O24" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>1.9</v>
+        <v>0.52</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>61</v>
@@ -1918,22 +2002,22 @@
         <v>73</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>83</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>73</v>
@@ -1942,21 +2026,27 @@
         <v>836</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O25" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>39</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>61</v>
@@ -1965,22 +2055,22 @@
         <v>73</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>73</v>
@@ -1989,21 +2079,27 @@
         <v>836</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O26" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>0.6</v>
+        <v>1.03</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>61</v>
@@ -2012,22 +2108,22 @@
         <v>73</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>73</v>
@@ -2036,21 +2132,27 @@
         <v>836</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>1.03</v>
+        <v>0.17</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>61</v>
@@ -2059,22 +2161,22 @@
         <v>73</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>73</v>
@@ -2083,21 +2185,27 @@
         <v>836</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>42</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>0.17</v>
+        <v>24.73</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>61</v>
@@ -2106,22 +2214,22 @@
         <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>73</v>
@@ -2130,45 +2238,51 @@
         <v>836</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>4.946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>24.73</v>
+        <v>62.69</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2420</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>73</v>
@@ -2177,21 +2291,27 @@
         <v>836</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>44</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.0214571878540049</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1.34515110656757</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>62.69</v>
+        <v>35.92</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>64</v>
@@ -2200,22 +2320,22 @@
         <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" s="2">
-        <v>2420</v>
+        <v>1387</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>73</v>
@@ -2224,21 +2344,27 @@
         <v>836</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O31" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>45</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.0214571878540049</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.770742187715857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2">
-        <v>35.92</v>
+        <v>73.99</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>64</v>
@@ -2250,19 +2376,19 @@
         <v>80</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="2">
-        <v>1387</v>
+        <v>2857</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>73</v>
@@ -2271,45 +2397,51 @@
         <v>836</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O32" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>46</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.0214571878540049</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1.58761732931782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2">
-        <v>73.99</v>
+        <v>74.39</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" s="2">
-        <v>2857</v>
+        <v>3348</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>73</v>
@@ -2318,256 +2450,292 @@
         <v>836</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O33" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>49</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.025</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1.85975</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="2">
+        <v>36</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" s="2">
+        <v>836</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O34" s="2">
+        <v>50</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.0201666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
+        <v>51</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="2">
-        <v>74.39</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C35" s="2">
+        <v>71.41</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="2">
-        <v>3348</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M34" s="2">
-        <v>836</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O34" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1">
+      <c r="E35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3213</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" s="2">
+        <v>836</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O35" s="2">
+        <v>51</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.025</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1.78525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="2">
-        <v>36</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M35" s="2">
-        <v>836</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O35" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1">
+      <c r="C36" s="2">
+        <v>348.39</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" s="2">
+        <v>836</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O36" s="2">
+        <v>52</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.0321864725223109</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>11.2134451620479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="2">
-        <v>71.41</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C37" s="2">
+        <v>59.42</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="2">
-        <v>3213</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M36" s="2">
-        <v>836</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O36" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="1">
+      <c r="E37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2674</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37" s="2">
+        <v>836</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O37" s="2">
+        <v>53</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0.025</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1.4855</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1">
+        <v>54</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="2">
-        <v>348.39</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M37" s="2">
-        <v>836</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O37" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="1">
+      <c r="C38" s="2">
+        <v>210.86</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="2">
+        <v>15812</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M38" s="2">
+        <v>836</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O38" s="2">
+        <v>54</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>8.78583333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="2">
-        <v>59.42</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38" s="2">
-        <v>2674</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M38" s="2">
-        <v>836</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O38" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1">
-        <v>54</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C39" s="2">
-        <v>210.86</v>
+        <v>2066.81</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>68</v>
@@ -2576,22 +2744,22 @@
         <v>73</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" s="2">
-        <v>15812</v>
+        <v>154986</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>73</v>
@@ -2600,45 +2768,51 @@
         <v>836</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O39" s="2">
+        <v>55</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>86.1170833333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1">
+      <c r="C40" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="2">
         <v>55</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="2">
-        <v>2066.81</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" s="2">
-        <v>154986</v>
-      </c>
       <c r="I40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>73</v>
@@ -2647,21 +2821,27 @@
         <v>836</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O40" s="2">
+        <v>56</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.010729284668306</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0.0304711684579891</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1">
+        <v>57</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="1">
-        <v>56</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C41" s="2">
-        <v>2.84</v>
+        <v>0.64</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>69</v>
@@ -2670,22 +2850,22 @@
         <v>73</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" s="2">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>73</v>
@@ -2694,162 +2874,186 @@
         <v>836</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O41" s="2">
+        <v>57</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0.010729284668306</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0.00686674218771586</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1">
+        <v>58</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1">
+      <c r="C42" s="2">
+        <v>24.72</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1432</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42" s="2">
+        <v>836</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O42" s="2">
+        <v>58</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.0321864725223109</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0.795649600751527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
+        <v>59</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="2">
-        <v>12</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M42" s="2">
-        <v>836</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O42" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="1">
+      <c r="C43" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="2">
+        <v>70</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M43" s="2">
+        <v>836</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O43" s="2">
+        <v>59</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0.0214571878540049</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0.039052081894289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
+        <v>60</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="2">
-        <v>24.72</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1432</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M43" s="2">
-        <v>836</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O43" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1">
+      <c r="C44" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="2">
+        <v>18</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M44" s="2">
+        <v>836</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O44" s="2">
+        <v>60</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0.00916666666666667</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0.00779166666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
+        <v>61</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H44" s="2">
-        <v>70</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M44" s="2">
-        <v>836</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O44" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1">
-        <v>60</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C45" s="2">
-        <v>0.85</v>
+        <v>0.04</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>71</v>
@@ -2858,69 +3062,75 @@
         <v>73</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M45" s="2">
+        <v>836</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O45" s="2">
+        <v>61</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0.00916666666666667</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0.000366666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
+        <v>62</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="2">
+        <v>21.65</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="2">
-        <v>18</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M45" s="2">
-        <v>836</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O45" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1">
-        <v>61</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H46" s="2">
-        <v>1</v>
-      </c>
       <c r="I46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>73</v>
@@ -2929,57 +3139,16 @@
         <v>836</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O46" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1">
         <v>62</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="2">
-        <v>21.65</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M47" s="2">
-        <v>836</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O47" s="2">
-        <v>62</v>
+      <c r="P46" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>1.44333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2989,59 +3158,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1">
+        <v>128.3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>67</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="2">
-        <v>128.3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3050,6 +3193,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>121</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3059,176 +3273,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
+        <v>15989326</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7014787</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>120</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>121</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>131</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15989326</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>132</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7014787</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3238,53 +3321,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>137</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳超明_2013-11-12_財產申報表_tmpf8fc1.xlsx
+++ b/legislator/property/output/normal/陳超明_2013-11-12_財產申報表_tmpf8fc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>苗栗縣竹南鎮龍鳳段07500000地號</t>
+  </si>
+  <si>
     <t>苗栗縣竹南鎮竹南段二小段08360000地號</t>
   </si>
   <si>
@@ -204,6 +207,9 @@
     <t>苗栗縣頭份鎮華夏段03010000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>5分之1</t>
   </si>
   <si>
@@ -241,6 +247,9 @@
   </si>
   <si>
     <t>陳超明</t>
+  </si>
+  <si>
+    <t>67年11月16日</t>
   </si>
   <si>
     <t>73年11月19日</t>
@@ -710,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,2386 +777,2439 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>19.2</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M2" s="2">
         <v>836</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>3.84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>128.19</v>
+        <v>19.2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M3" s="2">
         <v>836</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.2</v>
       </c>
       <c r="Q3" s="2">
-        <v>25.638</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1.6</v>
+        <v>128.19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M4" s="2">
         <v>836</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.2</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.32</v>
+        <v>25.638</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M5" s="2">
         <v>836</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.2</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.56</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M6" s="2">
         <v>836</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
         <v>0.2</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.92</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>18.6</v>
+        <v>4.6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M7" s="2">
         <v>836</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>0.2</v>
       </c>
       <c r="Q7" s="2">
-        <v>3.72</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>24.2</v>
+        <v>18.6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M8" s="2">
         <v>836</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
         <v>0.2</v>
       </c>
       <c r="Q8" s="2">
-        <v>4.84</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>10.2</v>
+        <v>24.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M9" s="2">
         <v>836</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
         <v>0.2</v>
       </c>
       <c r="Q9" s="2">
-        <v>2.04</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>13.2</v>
+        <v>10.2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M10" s="2">
         <v>836</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
         <v>0.2</v>
       </c>
       <c r="Q10" s="2">
-        <v>2.64</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>74.56</v>
+        <v>13.2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="2">
         <v>836</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2">
-        <v>0.18098</v>
+        <v>0.2</v>
       </c>
       <c r="Q11" s="2">
-        <v>13.4938688</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>15</v>
+        <v>74.56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="2">
         <v>836</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2">
-        <v>0.2</v>
+        <v>0.18098</v>
       </c>
       <c r="Q12" s="2">
-        <v>3</v>
+        <v>13.4938688</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="2">
         <v>836</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P13" s="2">
         <v>0.2</v>
       </c>
       <c r="Q13" s="2">
-        <v>5.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>265.64</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M14" s="2">
         <v>836</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O14" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P14" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" s="2">
-        <v>13.282</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>2.15</v>
+        <v>265.64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M15" s="2">
         <v>836</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O15" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P15" s="2">
         <v>0.05</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.1075</v>
+        <v>13.282</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>40.63</v>
+        <v>2.15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M16" s="2">
         <v>836</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O16" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P16" s="2">
         <v>0.05</v>
       </c>
       <c r="Q16" s="2">
-        <v>2.0315</v>
+        <v>0.1075</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>10.34</v>
+        <v>40.63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M17" s="2">
         <v>836</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P17" s="2">
         <v>0.05</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.517</v>
+        <v>2.0315</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>318.44</v>
+        <v>10.34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="2">
-        <v>12295</v>
+        <v>84</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M18" s="2">
         <v>836</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2">
-        <v>0.0214571878540049</v>
+        <v>0.05</v>
       </c>
       <c r="Q18" s="2">
-        <v>6.83282690022933</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>9.1</v>
+        <v>318.44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="H19" s="2">
+        <v>12295</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M19" s="2">
         <v>836</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2">
-        <v>0.05</v>
+        <v>0.0214571878540049</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.455</v>
+        <v>6.83282690022933</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>4.44</v>
+        <v>9.1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M20" s="2">
         <v>836</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P20" s="2">
         <v>0.05</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.222</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>3.52</v>
+        <v>4.44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M21" s="2">
         <v>836</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" s="2">
         <v>0.05</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.176</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>8.17</v>
+        <v>3.52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M22" s="2">
         <v>836</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P22" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.634</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>8.2</v>
+        <v>8.17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M23" s="2">
         <v>836</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O23" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="2">
         <v>0.2</v>
       </c>
       <c r="Q23" s="2">
-        <v>1.64</v>
+        <v>1.634</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>1.9</v>
+        <v>8.2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M24" s="2">
         <v>836</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O24" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P24" s="2">
         <v>0.2</v>
       </c>
       <c r="Q24" s="2">
-        <v>0.38</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>0.52</v>
+        <v>1.9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M25" s="2">
         <v>836</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O25" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P25" s="2">
         <v>0.2</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.104</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M26" s="2">
         <v>836</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O26" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" s="2">
         <v>0.2</v>
       </c>
       <c r="Q26" s="2">
-        <v>0.12</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>1.03</v>
+        <v>0.6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M27" s="2">
         <v>836</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O27" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P27" s="2">
         <v>0.2</v>
       </c>
       <c r="Q27" s="2">
-        <v>0.206</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>0.17</v>
+        <v>1.03</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M28" s="2">
         <v>836</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O28" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P28" s="2">
         <v>0.2</v>
       </c>
       <c r="Q28" s="2">
-        <v>0.034</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>24.73</v>
+        <v>0.17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M29" s="2">
         <v>836</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O29" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" s="2">
         <v>0.2</v>
       </c>
       <c r="Q29" s="2">
-        <v>4.946</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>62.69</v>
+        <v>24.73</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2420</v>
+        <v>84</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M30" s="2">
         <v>836</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P30" s="2">
-        <v>0.0214571878540049</v>
+        <v>0.2</v>
       </c>
       <c r="Q30" s="2">
-        <v>1.34515110656757</v>
+        <v>4.946</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>35.92</v>
+        <v>62.69</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H31" s="2">
-        <v>1387</v>
+        <v>2420</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M31" s="2">
         <v>836</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O31" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P31" s="2">
         <v>0.0214571878540049</v>
       </c>
       <c r="Q31" s="2">
-        <v>0.770742187715857</v>
+        <v>1.34515110656757</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="2">
-        <v>73.99</v>
+        <v>35.92</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H32" s="2">
-        <v>2857</v>
+        <v>1387</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M32" s="2">
         <v>836</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O32" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32" s="2">
         <v>0.0214571878540049</v>
       </c>
       <c r="Q32" s="2">
-        <v>1.58761732931782</v>
+        <v>0.770742187715857</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="2">
-        <v>74.39</v>
+        <v>73.99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H33" s="2">
-        <v>3348</v>
+        <v>2857</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M33" s="2">
         <v>836</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O33" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P33" s="2">
-        <v>0.025</v>
+        <v>0.0214571878540049</v>
       </c>
       <c r="Q33" s="2">
-        <v>1.85975</v>
+        <v>1.58761732931782</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="2">
-        <v>1.21</v>
+        <v>74.39</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H34" s="2">
-        <v>36</v>
+        <v>3348</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M34" s="2">
         <v>836</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O34" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P34" s="2">
-        <v>0.0166666666666667</v>
+        <v>0.025</v>
       </c>
       <c r="Q34" s="2">
-        <v>0.0201666666666667</v>
+        <v>1.85975</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="2">
-        <v>71.41</v>
+        <v>1.21</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H35" s="2">
-        <v>3213</v>
+        <v>36</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M35" s="2">
         <v>836</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O35" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P35" s="2">
-        <v>0.025</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="Q35" s="2">
-        <v>1.78525</v>
+        <v>0.0201666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="2">
-        <v>348.39</v>
+        <v>71.41</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>84</v>
+        <v>84</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3213</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M36" s="2">
         <v>836</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O36" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P36" s="2">
-        <v>0.0321864725223109</v>
+        <v>0.025</v>
       </c>
       <c r="Q36" s="2">
-        <v>11.2134451620479</v>
+        <v>1.78525</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="2">
-        <v>59.42</v>
+        <v>348.39</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" s="2">
-        <v>2674</v>
+        <v>84</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M37" s="2">
         <v>836</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O37" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P37" s="2">
-        <v>0.025</v>
+        <v>0.0321864725223109</v>
       </c>
       <c r="Q37" s="2">
-        <v>1.4855</v>
+        <v>11.2134451620479</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="2">
-        <v>210.86</v>
+        <v>59.42</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H38" s="2">
-        <v>15812</v>
+        <v>2674</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M38" s="2">
         <v>836</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O38" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P38" s="2">
-        <v>0.0416666666666667</v>
+        <v>0.025</v>
       </c>
       <c r="Q38" s="2">
-        <v>8.78583333333333</v>
+        <v>1.4855</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="2">
-        <v>2066.81</v>
+        <v>210.86</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H39" s="2">
-        <v>154986</v>
+        <v>15812</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M39" s="2">
         <v>836</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O39" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P39" s="2">
         <v>0.0416666666666667</v>
       </c>
       <c r="Q39" s="2">
-        <v>86.1170833333333</v>
+        <v>8.78583333333333</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="2">
-        <v>2.84</v>
+        <v>2066.81</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H40" s="2">
+        <v>154986</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" s="2">
+        <v>836</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O40" s="2">
         <v>55</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M40" s="2">
-        <v>836</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O40" s="2">
-        <v>56</v>
-      </c>
       <c r="P40" s="2">
-        <v>0.010729284668306</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Q40" s="2">
-        <v>0.0304711684579891</v>
+        <v>86.1170833333333</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="2">
-        <v>0.64</v>
+        <v>2.84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H41" s="2">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M41" s="2">
         <v>836</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O41" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P41" s="2">
         <v>0.010729284668306</v>
       </c>
       <c r="Q41" s="2">
-        <v>0.00686674218771586</v>
+        <v>0.0304711684579891</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C42" s="2">
-        <v>24.72</v>
+        <v>0.64</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H42" s="2">
-        <v>1432</v>
+        <v>12</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M42" s="2">
         <v>836</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O42" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P42" s="2">
-        <v>0.0321864725223109</v>
+        <v>0.010729284668306</v>
       </c>
       <c r="Q42" s="2">
-        <v>0.795649600751527</v>
+        <v>0.00686674218771586</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="2">
-        <v>1.82</v>
+        <v>24.72</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H43" s="2">
-        <v>70</v>
+        <v>1432</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M43" s="2">
         <v>836</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O43" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P43" s="2">
-        <v>0.0214571878540049</v>
+        <v>0.0321864725223109</v>
       </c>
       <c r="Q43" s="2">
-        <v>0.039052081894289</v>
+        <v>0.795649600751527</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="2">
-        <v>0.85</v>
+        <v>1.82</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H44" s="2">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M44" s="2">
         <v>836</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O44" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P44" s="2">
-        <v>0.00916666666666667</v>
+        <v>0.0214571878540049</v>
       </c>
       <c r="Q44" s="2">
-        <v>0.00779166666666667</v>
+        <v>0.039052081894289</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="2">
-        <v>0.04</v>
+        <v>0.85</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H45" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M45" s="2">
         <v>836</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O45" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P45" s="2">
         <v>0.00916666666666667</v>
       </c>
       <c r="Q45" s="2">
-        <v>0.000366666666666667</v>
+        <v>0.00779166666666667</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46" s="2">
+        <v>836</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O46" s="2">
+        <v>61</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0.00916666666666667</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0.000366666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
+        <v>62</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="2">
         <v>21.65</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I46" s="2" t="s">
+      <c r="E47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M46" s="2">
-        <v>836</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O46" s="2">
+      <c r="I47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M47" s="2">
+        <v>836</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O47" s="2">
         <v>62</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P47" s="2">
         <v>0.0666666666666667</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q47" s="2">
         <v>1.44333333333333</v>
       </c>
     </row>
@@ -3158,33 +3220,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2">
         <v>128.3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>82</v>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="2">
+        <v>836</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="2">
+        <v>67</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.33333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>42.766239</v>
       </c>
     </row>
   </sheetData>
@@ -3193,77 +3335,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>121</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3273,45 +3344,176 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>101</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>121</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="E1" s="1">
         <v>15989326</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E2" s="2">
-        <v>7014787</v>
+        <v>15989326</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>132</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7014787</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3321,30 +3523,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>137</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳超明_2013-11-12_財產申報表_tmpf8fc1.xlsx
+++ b/legislator/property/output/normal/陳超明_2013-11-12_財產申報表_tmpf8fc1.xlsx
@@ -9,17 +9,16 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="保險" sheetId="4" r:id="rId4"/>
-    <sheet name="債務" sheetId="5" r:id="rId5"/>
-    <sheet name="事業投資" sheetId="6" r:id="rId6"/>
+    <sheet name="保險" sheetId="3" r:id="rId3"/>
+    <sheet name="債務" sheetId="4" r:id="rId4"/>
+    <sheet name="事業投資" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -270,9 +269,6 @@
     <t>100年11月15曰</t>
   </si>
   <si>
-    <t>100年11</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
@@ -301,24 +297,6 @@
   </si>
   <si>
     <t>100000分之33333</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
   </si>
   <si>
     <t>全球人壽</t>
@@ -795,19 +773,19 @@
         <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>75</v>
@@ -816,7 +794,7 @@
         <v>836</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="2">
         <v>13</v>
@@ -848,19 +826,19 @@
         <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>75</v>
@@ -869,7 +847,7 @@
         <v>836</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2">
         <v>14</v>
@@ -901,19 +879,19 @@
         <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>75</v>
@@ -922,7 +900,7 @@
         <v>836</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O4" s="2">
         <v>15</v>
@@ -954,19 +932,19 @@
         <v>77</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>75</v>
@@ -975,7 +953,7 @@
         <v>836</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O5" s="2">
         <v>16</v>
@@ -1007,19 +985,19 @@
         <v>77</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>75</v>
@@ -1028,7 +1006,7 @@
         <v>836</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O6" s="2">
         <v>17</v>
@@ -1060,19 +1038,19 @@
         <v>77</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>75</v>
@@ -1081,7 +1059,7 @@
         <v>836</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2">
         <v>18</v>
@@ -1113,19 +1091,19 @@
         <v>77</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>75</v>
@@ -1134,7 +1112,7 @@
         <v>836</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O8" s="2">
         <v>19</v>
@@ -1166,19 +1144,19 @@
         <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>75</v>
@@ -1187,7 +1165,7 @@
         <v>836</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O9" s="2">
         <v>20</v>
@@ -1219,19 +1197,19 @@
         <v>77</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>75</v>
@@ -1240,7 +1218,7 @@
         <v>836</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O10" s="2">
         <v>21</v>
@@ -1272,19 +1250,19 @@
         <v>78</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>75</v>
@@ -1293,7 +1271,7 @@
         <v>836</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O11" s="2">
         <v>22</v>
@@ -1325,19 +1303,19 @@
         <v>78</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>75</v>
@@ -1346,7 +1324,7 @@
         <v>836</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O12" s="2">
         <v>23</v>
@@ -1378,19 +1356,19 @@
         <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>75</v>
@@ -1399,7 +1377,7 @@
         <v>836</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O13" s="2">
         <v>24</v>
@@ -1431,19 +1409,19 @@
         <v>79</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>75</v>
@@ -1452,7 +1430,7 @@
         <v>836</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O14" s="2">
         <v>25</v>
@@ -1484,19 +1462,19 @@
         <v>77</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>75</v>
@@ -1505,7 +1483,7 @@
         <v>836</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O15" s="2">
         <v>28</v>
@@ -1537,19 +1515,19 @@
         <v>80</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>75</v>
@@ -1558,7 +1536,7 @@
         <v>836</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O16" s="2">
         <v>29</v>
@@ -1590,19 +1568,19 @@
         <v>77</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>75</v>
@@ -1611,7 +1589,7 @@
         <v>836</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O17" s="2">
         <v>30</v>
@@ -1643,19 +1621,19 @@
         <v>81</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>75</v>
@@ -1664,7 +1642,7 @@
         <v>836</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O18" s="2">
         <v>31</v>
@@ -1696,19 +1674,19 @@
         <v>82</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="2">
         <v>12295</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>75</v>
@@ -1717,7 +1695,7 @@
         <v>836</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O19" s="2">
         <v>32</v>
@@ -1749,19 +1727,19 @@
         <v>81</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>75</v>
@@ -1770,7 +1748,7 @@
         <v>836</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O20" s="2">
         <v>33</v>
@@ -1802,19 +1780,19 @@
         <v>81</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>75</v>
@@ -1823,7 +1801,7 @@
         <v>836</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O21" s="2">
         <v>34</v>
@@ -1855,19 +1833,19 @@
         <v>81</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>75</v>
@@ -1876,7 +1854,7 @@
         <v>836</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O22" s="2">
         <v>35</v>
@@ -1908,19 +1886,19 @@
         <v>77</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>75</v>
@@ -1929,7 +1907,7 @@
         <v>836</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O23" s="2">
         <v>36</v>
@@ -1961,19 +1939,19 @@
         <v>77</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>75</v>
@@ -1982,7 +1960,7 @@
         <v>836</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O24" s="2">
         <v>37</v>
@@ -2014,19 +1992,19 @@
         <v>77</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>75</v>
@@ -2035,7 +2013,7 @@
         <v>836</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O25" s="2">
         <v>38</v>
@@ -2067,19 +2045,19 @@
         <v>77</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>75</v>
@@ -2088,7 +2066,7 @@
         <v>836</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O26" s="2">
         <v>39</v>
@@ -2120,19 +2098,19 @@
         <v>77</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>75</v>
@@ -2141,7 +2119,7 @@
         <v>836</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O27" s="2">
         <v>40</v>
@@ -2173,19 +2151,19 @@
         <v>77</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>75</v>
@@ -2194,7 +2172,7 @@
         <v>836</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="2">
         <v>41</v>
@@ -2226,19 +2204,19 @@
         <v>77</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>75</v>
@@ -2247,7 +2225,7 @@
         <v>836</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="2">
         <v>42</v>
@@ -2279,19 +2257,19 @@
         <v>77</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>75</v>
@@ -2300,7 +2278,7 @@
         <v>836</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="2">
         <v>43</v>
@@ -2332,19 +2310,19 @@
         <v>82</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="2">
         <v>2420</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>75</v>
@@ -2353,7 +2331,7 @@
         <v>836</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="2">
         <v>44</v>
@@ -2385,19 +2363,19 @@
         <v>82</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="2">
         <v>1387</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>75</v>
@@ -2406,7 +2384,7 @@
         <v>836</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O32" s="2">
         <v>45</v>
@@ -2435,22 +2413,22 @@
         <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="2">
         <v>2857</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>75</v>
@@ -2459,7 +2437,7 @@
         <v>836</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O33" s="2">
         <v>46</v>
@@ -2491,19 +2469,19 @@
         <v>82</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="2">
         <v>3348</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>75</v>
@@ -2512,7 +2490,7 @@
         <v>836</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O34" s="2">
         <v>49</v>
@@ -2544,19 +2522,19 @@
         <v>82</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H35" s="2">
         <v>36</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>75</v>
@@ -2565,7 +2543,7 @@
         <v>836</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O35" s="2">
         <v>50</v>
@@ -2597,19 +2575,19 @@
         <v>82</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H36" s="2">
         <v>3213</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>75</v>
@@ -2618,7 +2596,7 @@
         <v>836</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O36" s="2">
         <v>51</v>
@@ -2650,19 +2628,19 @@
         <v>82</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>75</v>
@@ -2671,7 +2649,7 @@
         <v>836</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="2">
         <v>52</v>
@@ -2703,19 +2681,19 @@
         <v>82</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H38" s="2">
         <v>2674</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>75</v>
@@ -2724,7 +2702,7 @@
         <v>836</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O38" s="2">
         <v>53</v>
@@ -2756,19 +2734,19 @@
         <v>82</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H39" s="2">
         <v>15812</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>75</v>
@@ -2777,7 +2755,7 @@
         <v>836</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O39" s="2">
         <v>54</v>
@@ -2809,19 +2787,19 @@
         <v>82</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" s="2">
         <v>154986</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>75</v>
@@ -2830,7 +2808,7 @@
         <v>836</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O40" s="2">
         <v>55</v>
@@ -2862,19 +2840,19 @@
         <v>82</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H41" s="2">
         <v>55</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>75</v>
@@ -2883,7 +2861,7 @@
         <v>836</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O41" s="2">
         <v>56</v>
@@ -2915,19 +2893,19 @@
         <v>82</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" s="2">
         <v>12</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>75</v>
@@ -2936,7 +2914,7 @@
         <v>836</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O42" s="2">
         <v>57</v>
@@ -2968,19 +2946,19 @@
         <v>82</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H43" s="2">
         <v>1432</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>75</v>
@@ -2989,7 +2967,7 @@
         <v>836</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O43" s="2">
         <v>58</v>
@@ -3021,19 +2999,19 @@
         <v>82</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H44" s="2">
         <v>70</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>75</v>
@@ -3042,7 +3020,7 @@
         <v>836</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O44" s="2">
         <v>59</v>
@@ -3074,19 +3052,19 @@
         <v>82</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H45" s="2">
         <v>18</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>75</v>
@@ -3095,7 +3073,7 @@
         <v>836</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O45" s="2">
         <v>60</v>
@@ -3127,19 +3105,19 @@
         <v>82</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>75</v>
@@ -3148,7 +3126,7 @@
         <v>836</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O46" s="2">
         <v>61</v>
@@ -3180,19 +3158,19 @@
         <v>77</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I47" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>75</v>
@@ -3201,7 +3179,7 @@
         <v>836</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O47" s="2">
         <v>62</v>
@@ -3281,13 +3259,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2">
         <v>128.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>75</v>
@@ -3296,19 +3274,19 @@
         <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>75</v>
@@ -3317,7 +3295,7 @@
         <v>836</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="2">
         <v>67</v>
@@ -3335,6 +3313,137 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>120</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1">
+        <v>15989326</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>130</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15989326</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7014787</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3344,232 +3453,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>120</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>121</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="1">
-        <v>15989326</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>131</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15989326</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>132</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7014787</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>137</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳超明_2013-11-12_財產申報表_tmpf8fc1.xlsx
+++ b/legislator/property/output/normal/陳超明_2013-11-12_財產申報表_tmpf8fc1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>100000分之33333</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>全球人壽</t>
@@ -3280,7 +3283,7 @@
         <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>88</v>
@@ -3322,10 +3325,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>75</v>
@@ -3336,10 +3339,10 @@
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>75</v>
@@ -3350,10 +3353,10 @@
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>75</v>
@@ -3374,22 +3377,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1">
         <v>15989326</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3397,22 +3400,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>15989326</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3420,22 +3423,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>7014787</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3456,19 +3459,19 @@
         <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3479,19 +3482,19 @@
         <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳超明_2013-11-12_財產申報表_tmpf8fc1.xlsx
+++ b/legislator/property/output/normal/陳超明_2013-11-12_財產申報表_tmpf8fc1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -302,6 +302,9 @@
     <t>building</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>全球人壽</t>
   </si>
   <si>
@@ -311,22 +314,37 @@
     <t>全球人壽終身壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押貸款</t>
   </si>
   <si>
     <t>玉山銀行苗栗縣竹南鎮民族街61號</t>
   </si>
   <si>
+    <t>臺灣土地銀行股份有限公司苗栗縣頭份鎮中華路942號</t>
+  </si>
+  <si>
     <t>101年02月23日</t>
   </si>
   <si>
+    <t>90年08月29日</t>
+  </si>
+  <si>
     <t>資金周轉</t>
   </si>
   <si>
-    <t>臺灣土地銀行股份有限公司苗栗縣頭份鎮中華路942號</t>
-  </si>
-  <si>
-    <t>90年08月29日</t>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>台灣聚優股份有限公司</t>
@@ -335,13 +353,13 @@
     <t>臺北市濟南路三段39之1號5樓</t>
   </si>
   <si>
-    <t>1000000</t>
-  </si>
-  <si>
     <t>78年12月13日</t>
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3317,49 +3335,112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="2">
+        <v>836</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>75</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="2">
+        <v>836</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3369,76 +3450,139 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="1">
-        <v>15989326</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>15989326</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="2">
+        <v>836</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>7014787</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="2">
+        <v>836</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3448,33 +3592,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>136</v>
       </c>
@@ -3482,19 +3647,40 @@
         <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="2">
+        <v>836</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
